--- a/AI/kaggle/2020_11_ConwayReverseGame2020/report_2012111000.xlsx
+++ b/AI/kaggle/2020_11_ConwayReverseGame2020/report_2012111000.xlsx
@@ -546,71 +546,20 @@
     <xf numFmtId="178" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="178" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -619,15 +568,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,20 +600,80 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -30380,10 +30380,10 @@
   <dimension ref="B1:N244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="M28" sqref="M28:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -30396,29 +30396,29 @@
   <sheetData>
     <row r="1" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="52"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="47"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="4">
         <v>1</v>
       </c>
@@ -30434,13 +30434,13 @@
       <c r="G3" s="4">
         <v>5</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="50"/>
-      <c r="K3" s="53">
+      <c r="H3" s="28"/>
+      <c r="I3" s="30"/>
+      <c r="K3" s="33">
         <f>H224-MIN(H24:H224)</f>
         <v>1.4041600000000015E-2</v>
       </c>
-      <c r="L3" s="54"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="6">
@@ -30509,12 +30509,12 @@
         <f>AVERAGE(Sheet1!H2, Sheet1!Q2, Sheet1!Z2, Sheet1!AI2, Sheet1!AR2)</f>
         <v>1</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B6" s="6">
@@ -30549,12 +30549,12 @@
         <f>AVERAGE(Sheet1!H3, Sheet1!Q3, Sheet1!Z3, Sheet1!AI3, Sheet1!AR3)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B7" s="6">
@@ -30589,12 +30589,12 @@
         <f>AVERAGE(Sheet1!H4, Sheet1!Q4, Sheet1!Z4, Sheet1!AI4, Sheet1!AR4)</f>
         <v>1</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B8" s="6">
@@ -30629,12 +30629,12 @@
         <f>AVERAGE(Sheet1!H5, Sheet1!Q5, Sheet1!Z5, Sheet1!AI5, Sheet1!AR5)</f>
         <v>1</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="41"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" s="6">
@@ -30669,12 +30669,12 @@
         <f>AVERAGE(Sheet1!H6, Sheet1!Q6, Sheet1!Z6, Sheet1!AI6, Sheet1!AR6)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="41"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B10" s="6">
@@ -30709,12 +30709,12 @@
         <f>AVERAGE(Sheet1!H7, Sheet1!Q7, Sheet1!Z7, Sheet1!AI7, Sheet1!AR7)</f>
         <v>1</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B11" s="6">
@@ -30749,12 +30749,12 @@
         <f>AVERAGE(Sheet1!H8, Sheet1!Q8, Sheet1!Z8, Sheet1!AI8, Sheet1!AR8)</f>
         <v>1</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="41"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="24"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B12" s="6">
@@ -30789,12 +30789,12 @@
         <f>AVERAGE(Sheet1!H9, Sheet1!Q9, Sheet1!Z9, Sheet1!AI9, Sheet1!AR9)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="41"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B13" s="6">
@@ -30829,12 +30829,12 @@
         <f>AVERAGE(Sheet1!H10, Sheet1!Q10, Sheet1!Z10, Sheet1!AI10, Sheet1!AR10)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="41"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B14" s="6">
@@ -30869,12 +30869,12 @@
         <f>AVERAGE(Sheet1!H11, Sheet1!Q11, Sheet1!Z11, Sheet1!AI11, Sheet1!AR11)</f>
         <v>1</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="41"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="6">
@@ -30909,12 +30909,12 @@
         <f>AVERAGE(Sheet1!H12, Sheet1!Q12, Sheet1!Z12, Sheet1!AI12, Sheet1!AR12)</f>
         <v>1</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="41"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="6">
@@ -30949,12 +30949,12 @@
         <f>AVERAGE(Sheet1!H13, Sheet1!Q13, Sheet1!Z13, Sheet1!AI13, Sheet1!AR13)</f>
         <v>1</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="41"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B17" s="6">
@@ -30989,12 +30989,12 @@
         <f>AVERAGE(Sheet1!H14, Sheet1!Q14, Sheet1!Z14, Sheet1!AI14, Sheet1!AR14)</f>
         <v>1</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B18" s="6">
@@ -31029,12 +31029,12 @@
         <f>AVERAGE(Sheet1!H15, Sheet1!Q15, Sheet1!Z15, Sheet1!AI15, Sheet1!AR15)</f>
         <v>1</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="41"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B19" s="6">
@@ -31069,10 +31069,10 @@
         <f>AVERAGE(Sheet1!H16, Sheet1!Q16, Sheet1!Z16, Sheet1!AI16, Sheet1!AR16)</f>
         <v>1</v>
       </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="41"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B20" s="6">
@@ -31107,10 +31107,10 @@
         <f>AVERAGE(Sheet1!H17, Sheet1!Q17, Sheet1!Z17, Sheet1!AI17, Sheet1!AR17)</f>
         <v>0.99999360000000004</v>
       </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="41"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B21" s="6">
@@ -31145,10 +31145,10 @@
         <f>AVERAGE(Sheet1!H18, Sheet1!Q18, Sheet1!Z18, Sheet1!AI18, Sheet1!AR18)</f>
         <v>0.99999360000000004</v>
       </c>
-      <c r="K21" s="39"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="41"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B22" s="6">
@@ -31183,10 +31183,10 @@
         <f>AVERAGE(Sheet1!H19, Sheet1!Q19, Sheet1!Z19, Sheet1!AI19, Sheet1!AR19)</f>
         <v>0.9999808</v>
       </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="41"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="24"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B23" s="6">
@@ -31221,10 +31221,10 @@
         <f>AVERAGE(Sheet1!H20, Sheet1!Q20, Sheet1!Z20, Sheet1!AI20, Sheet1!AR20)</f>
         <v>0.99995519999999993</v>
       </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="41"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="24"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B24" s="5">
@@ -31259,10 +31259,10 @@
         <f>AVERAGE(Sheet1!H21, Sheet1!Q21, Sheet1!Z21, Sheet1!AI21, Sheet1!AR21)</f>
         <v>0.99987840000000006</v>
       </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="41"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="24"/>
     </row>
     <row r="25" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="5">
@@ -31297,10 +31297,10 @@
         <f>AVERAGE(Sheet1!H22, Sheet1!Q22, Sheet1!Z22, Sheet1!AI22, Sheet1!AR22)</f>
         <v>0.93530879999999994</v>
       </c>
-      <c r="K25" s="42"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="44"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="5">
@@ -31369,14 +31369,14 @@
         <f>AVERAGE(Sheet1!H24, Sheet1!Q24, Sheet1!Z24, Sheet1!AI24, Sheet1!AR24)</f>
         <v>0.83761920000000001</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="18"/>
-      <c r="M27" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27" s="34"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" s="55"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B28" s="5">
@@ -31411,14 +31411,14 @@
         <f>AVERAGE(Sheet1!H25, Sheet1!Q25, Sheet1!Z25, Sheet1!AI25, Sheet1!AR25)</f>
         <v>0.83145599999999997</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="K28" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="35" t="s">
+      <c r="L28" s="42"/>
+      <c r="M28" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="36"/>
+      <c r="N28" s="57"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B29" s="5">
@@ -31453,14 +31453,14 @@
         <f>AVERAGE(Sheet1!H26, Sheet1!Q26, Sheet1!Z26, Sheet1!AI26, Sheet1!AR26)</f>
         <v>0.82264960000000009</v>
       </c>
-      <c r="K29" s="29" t="s">
+      <c r="K29" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="35" t="s">
+      <c r="L29" s="42"/>
+      <c r="M29" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="36"/>
+      <c r="N29" s="57"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B30" s="5">
@@ -31495,14 +31495,14 @@
         <f>AVERAGE(Sheet1!H27, Sheet1!Q27, Sheet1!Z27, Sheet1!AI27, Sheet1!AR27)</f>
         <v>0.78746880000000008</v>
       </c>
-      <c r="K30" s="29" t="s">
+      <c r="K30" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="30"/>
-      <c r="M30" s="35">
+      <c r="L30" s="42"/>
+      <c r="M30" s="56">
         <v>25</v>
       </c>
-      <c r="N30" s="36"/>
+      <c r="N30" s="57"/>
     </row>
     <row r="31" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="5">
@@ -31537,14 +31537,14 @@
         <f>AVERAGE(Sheet1!H28, Sheet1!Q28, Sheet1!Z28, Sheet1!AI28, Sheet1!AR28)</f>
         <v>0.73882239999999988</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="L31" s="32"/>
-      <c r="M31" s="37">
-        <v>1</v>
-      </c>
-      <c r="N31" s="38"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="58">
+        <v>1</v>
+      </c>
+      <c r="N31" s="59"/>
     </row>
     <row r="32" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="5">
@@ -31613,12 +31613,12 @@
         <f>AVERAGE(Sheet1!H30, Sheet1!Q30, Sheet1!Z30, Sheet1!AI30, Sheet1!AR30)</f>
         <v>0.66079359999999998</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="K33" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="19"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="37"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B34" s="5">
@@ -31653,12 +31653,12 @@
         <f>AVERAGE(Sheet1!H31, Sheet1!Q31, Sheet1!Z31, Sheet1!AI31, Sheet1!AR31)</f>
         <v>0.63186560000000003</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="45"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B35" s="5">
@@ -31693,10 +31693,10 @@
         <f>AVERAGE(Sheet1!H32, Sheet1!Q32, Sheet1!Z32, Sheet1!AI32, Sheet1!AR32)</f>
         <v>0.60331519999999994</v>
       </c>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="25"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="48"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B36" s="5">
@@ -31731,10 +31731,10 @@
         <f>AVERAGE(Sheet1!H33, Sheet1!Q33, Sheet1!Z33, Sheet1!AI33, Sheet1!AR33)</f>
         <v>0.58590720000000007</v>
       </c>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="25"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="48"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B37" s="5">
@@ -31769,10 +31769,10 @@
         <f>AVERAGE(Sheet1!H34, Sheet1!Q34, Sheet1!Z34, Sheet1!AI34, Sheet1!AR34)</f>
         <v>0.5690944</v>
       </c>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="25"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="48"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B38" s="5">
@@ -31807,10 +31807,10 @@
         <f>AVERAGE(Sheet1!H35, Sheet1!Q35, Sheet1!Z35, Sheet1!AI35, Sheet1!AR35)</f>
         <v>0.55287039999999998</v>
       </c>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="25"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="48"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B39" s="5">
@@ -31845,10 +31845,10 @@
         <f>AVERAGE(Sheet1!H36, Sheet1!Q36, Sheet1!Z36, Sheet1!AI36, Sheet1!AR36)</f>
         <v>0.54305919999999996</v>
       </c>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="25"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="48"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B40" s="5">
@@ -31883,10 +31883,10 @@
         <f>AVERAGE(Sheet1!H37, Sheet1!Q37, Sheet1!Z37, Sheet1!AI37, Sheet1!AR37)</f>
         <v>0.5318911999999999</v>
       </c>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="25"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="48"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B41" s="5">
@@ -31921,10 +31921,10 @@
         <f>AVERAGE(Sheet1!H38, Sheet1!Q38, Sheet1!Z38, Sheet1!AI38, Sheet1!AR38)</f>
         <v>0.5205824</v>
       </c>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="25"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="48"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B42" s="5">
@@ -31959,10 +31959,10 @@
         <f>AVERAGE(Sheet1!H39, Sheet1!Q39, Sheet1!Z39, Sheet1!AI39, Sheet1!AR39)</f>
         <v>0.51079679999999994</v>
       </c>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="25"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="48"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B43" s="5">
@@ -31997,10 +31997,10 @@
         <f>AVERAGE(Sheet1!H40, Sheet1!Q40, Sheet1!Z40, Sheet1!AI40, Sheet1!AR40)</f>
         <v>0.50163840000000004</v>
       </c>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="25"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="48"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B44" s="5">
@@ -32035,10 +32035,10 @@
         <f>AVERAGE(Sheet1!H41, Sheet1!Q41, Sheet1!Z41, Sheet1!AI41, Sheet1!AR41)</f>
         <v>0.49276159999999997</v>
       </c>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="25"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="48"/>
     </row>
     <row r="45" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="5">
@@ -32073,10 +32073,10 @@
         <f>AVERAGE(Sheet1!H42, Sheet1!Q42, Sheet1!Z42, Sheet1!AI42, Sheet1!AR42)</f>
         <v>0.48435839999999997</v>
       </c>
-      <c r="K45" s="26"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="28"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="51"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B46" s="5">
@@ -33983,35 +33983,35 @@
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B102" s="56">
+      <c r="B102" s="18">
         <f>Sheet1!B99</f>
         <v>0.39</v>
       </c>
-      <c r="C102" s="57">
+      <c r="C102" s="19">
         <f>Sheet1!D99</f>
         <v>0.11504</v>
       </c>
-      <c r="D102" s="57">
+      <c r="D102" s="19">
         <f>Sheet1!M99</f>
         <v>0.147392</v>
       </c>
-      <c r="E102" s="57">
+      <c r="E102" s="19">
         <f>Sheet1!V99</f>
         <v>0.154144</v>
       </c>
-      <c r="F102" s="57">
+      <c r="F102" s="19">
         <f>Sheet1!AE99</f>
         <v>0.15264</v>
       </c>
-      <c r="G102" s="57">
+      <c r="G102" s="19">
         <f>Sheet1!AN99</f>
         <v>0.15536</v>
       </c>
-      <c r="H102" s="58">
+      <c r="H102" s="20">
         <f t="shared" si="1"/>
         <v>0.14491519999999997</v>
       </c>
-      <c r="I102" s="59">
+      <c r="I102" s="21">
         <f>AVERAGE(Sheet1!H99, Sheet1!Q99, Sheet1!Z99, Sheet1!AI99, Sheet1!AR99)</f>
         <v>5.0764799999999999E-2</v>
       </c>
@@ -34225,23 +34225,23 @@
         <f>Sheet1!B106</f>
         <v>0.42499999999999999</v>
       </c>
-      <c r="C109" s="55">
+      <c r="C109" s="17">
         <f>Sheet1!D106</f>
         <v>0.116352</v>
       </c>
-      <c r="D109" s="55">
+      <c r="D109" s="17">
         <f>Sheet1!M106</f>
         <v>0.148064</v>
       </c>
-      <c r="E109" s="55">
+      <c r="E109" s="17">
         <f>Sheet1!V106</f>
         <v>0.154112</v>
       </c>
-      <c r="F109" s="55">
+      <c r="F109" s="17">
         <f>Sheet1!AE106</f>
         <v>0.15340799999999999</v>
       </c>
-      <c r="G109" s="55">
+      <c r="G109" s="17">
         <f>Sheet1!AN106</f>
         <v>0.15491199999999999</v>
       </c>
@@ -38846,6 +38846,33 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N45"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B2:B3"/>
@@ -38858,33 +38885,6 @@
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N45"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="K29:L29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H4:H244">
